--- a/medicine/Mort/Décès_en_1962/Décès_en_1962.xlsx
+++ b/medicine/Mort/Décès_en_1962/Décès_en_1962.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1962</t>
+          <t>Décès_en_1962</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1962</t>
+          <t>Décès_en_1962</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,14 +540,53 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Inconnu
-Marius Chambon, peintre français (° 27 décembre 1876).
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Marius Chambon, peintre français (° 27 décembre 1876).
 Raphaël Delorme, peintre français (° 1885).
 Domnikia Ilarionovna Kouznetsova-Novoleinik, aviatrice russe (° 1886).
 Zygmunt Landau, peintre de l'École de Paris issu d'une famille juive de Pologne (° 1898).
-Berthe Roten-Calpini, peintre suisse (° 1873)
-Janvier
-2 janvier : Kurt Seligmann, écrivain, peintre et graveur suisse et américain (° 20 juillet 1900).
+Berthe Roten-Calpini, peintre suisse (° 1873)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1962</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1962</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2 janvier : Kurt Seligmann, écrivain, peintre et graveur suisse et américain (° 20 juillet 1900).
 6 janvier : Jean-Francis Laglenne, peintre et décorateur de théâtre français (° 23 juillet 1899).
 10 janvier : Cipriano Efisio Oppo, peintre et homme politique italien (° 2 juillet 1891).
 14 janvier : Maurice Pellerier, peintre et aquarelliste français (° 22 février 1875).
@@ -544,9 +595,43 @@
 20 janvier : Jacques Boolsky, peintre, pastelliste et cinéaste suisse d'origine russe (° 31 décembre 1895).
 24 janvier : André Lhote, peintre français (° 5 juillet 1885).
 25 janvier : Hrand Nazariantz, écrivain et poète arménien naturalisé italien (° 8 janvier 1886).
-29 janvier : Fritz Kreisler, violoniste et compositeur autrichien (° 2 février 1875).
-Février
-5 février :
+29 janvier : Fritz Kreisler, violoniste et compositeur autrichien (° 2 février 1875).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1962</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1962</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>5 février :
 Gaetano Cicognani, cardinal italien de la curie romaine (° 26 novembre 1881).
 Ricardo Lamote de Grignon, compositeur et chef d'orchestre espagnol (° 25 septembre 1899).
 6 février :
@@ -567,9 +652,43 @@
 27 février :
 Willie Best, acteur et compositeur américain (° 27 mai 1916).
 Albéric Collin, sculpteur belge (° 6 avril 1886).
-28 février : Saw Sa, médecin, suffragette et sénatrice birmane (° 1er août 1884).
-Mars
-1er mars : Roscoe Ates, acteur américain (° 20 janvier 1895).
+28 février : Saw Sa, médecin, suffragette et sénatrice birmane (° 1er août 1884).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1962</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1962</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1er mars : Roscoe Ates, acteur américain (° 20 janvier 1895).
 3 mars :
 Pierre Benoit, écrivain français (° 16 juillet 1886).
 Charles Peccatte, peintre français (° 21 février 1870).
@@ -580,9 +699,43 @@
 24 mars : Auguste Piccard, physicien suisse (° 28 janvier 1884).
 26 mars : Cyrillus Kreek, compositeur estonien (° 3 décembre 1879).
 28 mars : Hugo Wast, écrivain et homme politique argentin (° 23 octobre 1883).
-31 mars : Marcello Dudovich, peintre, illustrateur et affichiste italien (° 21 mars 1878).
-Avril
-1er avril : Michel de Ghelderode, auteur dramatique belge (° 3 avril 1898).
+31 mars : Marcello Dudovich, peintre, illustrateur et affichiste italien (° 21 mars 1878).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1962</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1962</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1er avril : Michel de Ghelderode, auteur dramatique belge (° 3 avril 1898).
 3 avril : Manólis Kalomíris, compositeur grec (° 28 décembre 1883).
 6 avril : Henri Mondor, chirurgien français (° 20 mai 1885).
 8 avril :
@@ -601,16 +754,84 @@
 28 avril : Jeanne Beretta Molla, médecin italienne reconnue comme sainte par l’Église catholique (° 4 octobre 1922).
 29 avril :
 Pascal Forthuny, homme de lettres, critique d'art, sinologue, peintre et musicien français (° 24 mars 1872).
-Armande de Polignac, compositrice française (° 8 janvier 1876).
-Mai
-6 mai : Marie Roserot de Melin, résistante et infirmière française (° 25 janvier 1891).
+Armande de Polignac, compositrice française (° 8 janvier 1876).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1962</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1962</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>6 mai : Marie Roserot de Melin, résistante et infirmière française (° 25 janvier 1891).
 8 mai : Donald Lambert, pianiste de jazz américain (° 12 février 1904)
 17 mai : Daniel Sorano, acteur français (° 14 décembre 1920).
 25 mai : Sergueï Chtcherbatov, peintre, philanthrope, collectionneur d'art et archéologue russe puis soviétique (° 1875).
 29 mai : François de Hérain, peintre, sculpteur et graveur français (° 10 novembre 1877).
-31 mai : Adolf Eichmann, criminel de guerre allemand, membre du parti nazi, fonctionnaire du Troisième Reich (° 19 mars 1906).
-Juin
-1er juin : Roger Nivelt, peintre et illustrateur français (° 30 août 1899).
+31 mai : Adolf Eichmann, criminel de guerre allemand, membre du parti nazi, fonctionnaire du Troisième Reich (° 19 mars 1906).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1962</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1962</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1er juin : Roger Nivelt, peintre et illustrateur français (° 30 août 1899).
 4 juin : Godfried Devreese, chef d'orchestre, violoniste et compositeur belge (° 22 janvier 1893).
 6 juin : Yves Klein, peintre français (° 28 avril 1928).
 10 juin :
@@ -630,18 +851,86 @@
 21 juin : Vladimir Pohl, compositeur, pianiste et professeur russe puis soviétique (° 1er janvier 1875).
 24 juin : Carl Otto Schutte, coureur cycliste américain (° 5 octobre 1887).
 28 juin : Jacques Maroger, peintre, chercheur et restaurateur d'œuvres d'art français (° 22 novembre 1884).
-? juin : Fabien Fabiano, peintre, illustrateur et caricaturiste français (° 10 octobre 1882).
-Juillet
-2 juillet : Jacques Zeiller, historien français (° 21 mars 1878).
+? juin : Fabien Fabiano, peintre, illustrateur et caricaturiste français (° 10 octobre 1882).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1962</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1962</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2 juillet : Jacques Zeiller, historien français (° 21 mars 1878).
 4 juillet : Rex Bell, acteur américain (° 16 octobre 1903).
 6 juillet : William Faulkner, écrivain américain (° 25 septembre 1897).
 9 juillet : Georges Bataille, écrivain français (° 10 septembre 1897).
 21 juillet : George Macaulay Trevelyan, historien et écrivain britannique (° 16 février 1876).
 27 juillet : Ion Țuculescu, peintre roumain (° 19 mai 1910).
 29 juillet : Gabriele Acacio Coussa, cardinal syrien (° 3 août 1897).
-30 juillet : Myron McCormick, acteur américain (° 8 février 1908).
-Août
-5 août : Marilyn Monroe, actrice américaine (° 1er juin 1926).
+30 juillet : Myron McCormick, acteur américain (° 8 février 1908).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1962</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1962</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>5 août : Marilyn Monroe, actrice américaine (° 1er juin 1926).
 6 août : Ángel Borlenghi, dirigeant syndical et homme politique argentin (° 1er février 1906).
 9 août : Hermann Hesse, écrivain, suisse (° 2 juillet 1877).
 11 août : Karl Camphausen, homme politique allemand (° 12 décembre 1896).
@@ -653,9 +942,43 @@
 Robert Mahias, peintre, aquarelliste, décorateur et illustrateur français (° 12 octobre 1890).
 Louis Moilliet, peintre et concepteur de vitrail suisse (° 6 octobre 1880).
 Denise Ravage, bibliothécaire française (° 14 juillet 1899).
-28 août : Jānis Jaunsudrabiņš, poète et écrivain letton (° 25 août 1877).
-Septembre
-4 septembre : Juan Atilio Bramuglia, avocat, syndicaliste, homme politique, diplomate et professeur d’université argentin (° 1er janvier 1903).
+28 août : Jānis Jaunsudrabiņš, poète et écrivain letton (° 25 août 1877).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1962</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1962</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>4 septembre : Juan Atilio Bramuglia, avocat, syndicaliste, homme politique, diplomate et professeur d’université argentin (° 1er janvier 1903).
 7 septembre : Karen Blixen, écrivaine danoise (° 17 avril 1885).
 8 septembre : Emmanuel Mané-Katz, peintre français de culture juive (° 5 juin 1894).
 11 septembre : Alberto Teisaire, militaire et homme politique argentin (° 20 mai 1891).
@@ -672,9 +995,43 @@
 Félix Goethals, coureur cycliste français (° 14 janvier 1891).
 Sam McDaniel, acteur américain (° 28 janvier 1886).
 28 septembre : Roger Nimier, écrivain français (° 31 octobre 1925).
-30 septembre : Lamine Bey, dernier bey de la dynastie des Husseinites (° 4 septembre 1881).
-Octobre
-6 octobre : Tod Browning, réalisateur, scénariste, producteur et acteur américain (° 12 juillet 1880).
+30 septembre : Lamine Bey, dernier bey de la dynastie des Husseinites (° 4 septembre 1881).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1962</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1962</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>6 octobre : Tod Browning, réalisateur, scénariste, producteur et acteur américain (° 12 juillet 1880).
 8 octobre :
 François Eberl, peintre figuratif français (° 25 mai 1887).
 Solomon Linda, musicien, chanteur et compositeur zoulou sud-africain (° 1909).
@@ -693,9 +1050,43 @@
 Samouïl Feinberg, pianiste et pédagogue russe (° 26 mai 1890).
 Alfred Filuzeau, homme d'affaires français (° 3 mai 1878).
 28 octobre : Pierre Froidebise, organiste et compositeur belge (° 15 mai 1914).
-31 octobre : Louis Massignon, orientaliste français (° 25 juillet 1883).
-Novembre
-1er novembre : Ricardo Rodriguez, pilote mexicain de Formule 1 (° 14 février 1942).
+31 octobre : Louis Massignon, orientaliste français (° 25 juillet 1883).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1962</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1962</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1er novembre : Ricardo Rodriguez, pilote mexicain de Formule 1 (° 14 février 1942).
 4 novembre : Gabriel Belot, poète, peintre et graveur français (° 6 novembre 1882).
 7 novembre : Luigi Barral, coureur cycliste italien (° 23 mars 1907).
 8 novembre : Monte Brice, scénariste, producteur, réalisateur et acteur américain (° 12 juillet 1891).
@@ -714,9 +1105,43 @@
 Joseph-Victor Communal, peintre français (° 11 février 1876).
 Albert Sarraut, homme politique français (° 28 juillet 1872).
 28 novembre : Wilhelmine (reine des Pays-Bas), Reine des Pays-Bas de 1890 à 1948 (° 31 août 1880).
-29 novembre :  Erik Scavenius, homme politique danois (° 13 juillet 1877).
-Décembre
-9 décembre : Paul Baudier, peintre, graveur et illustrateur français (° 18 octobre 1881).
+29 novembre :  Erik Scavenius, homme politique danois (° 13 juillet 1877).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1962</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1962</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>9 décembre : Paul Baudier, peintre, graveur et illustrateur français (° 18 octobre 1881).
 15 décembre :
 Adila Fachiri, violoniste hongroise (° 26 février 1886).
 Charles Laughton, acteur et réalisateur britannique (° 1er juillet 1899).
